--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value762.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value762.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9919734430239086</v>
+        <v>-1</v>
       </c>
       <c r="B1">
-        <v>2.680001867126958</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>4.484622323116104</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.218879283123897</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.21733698788881</v>
+        <v>0.9919991493225098</v>
       </c>
     </row>
   </sheetData>
